--- a/Паспорт вуличного освітлення/Протоколи заміни ламп/Рогізно.xlsx
+++ b/Паспорт вуличного освітлення/Протоколи заміни ламп/Рогізно.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Вулиця</t>
   </si>
@@ -224,13 +224,16 @@
       </rPr>
       <t xml:space="preserve"> дата.населений пункт.вулиця.номер опори   Приклад:(11.11.2022/РО/Ш/22.)</t>
     </r>
+  </si>
+  <si>
+    <t>Бережницький СО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +271,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -300,11 +313,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,6 +366,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -630,15 +685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N20"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:N15"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="14" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,7 +721,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -675,59 +730,66 @@
         <v>6</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="14">
+        <v>44880</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3"/>
@@ -745,9 +807,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A8" s="11"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -764,7 +824,7 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -782,7 +842,7 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -799,8 +859,8 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
+      <c r="A11" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -817,9 +877,7 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -834,71 +892,110 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B20:C20"/>
+  <mergeCells count="10">
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
